--- a/dashboard-ui/src/components/Research/variables/Variable Definitions Calibration_Scores.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions Calibration_Scores.xlsx
@@ -55,10 +55,10 @@
     <t>Target</t>
   </si>
   <si>
-    <t>P1E/Population Alignment score (ADM|target)</t>
-  </si>
-  <si>
-    <t>P1E/Population Alignment score (Delegator|target)</t>
+    <t>P1E Alignment score (ADM|target)</t>
+  </si>
+  <si>
+    <t>P1E Alignment score (Delegator|target)</t>
   </si>
   <si>
     <t>Alignment score (Participant_sim|Observed_ADM(target))</t>
@@ -79,7 +79,7 @@
     <t>Competence Error</t>
   </si>
   <si>
-    <t>P1E/Population Alignment score (Delegator|Observed_ADM (target))</t>
+    <t>P1E Alignment score (Delegator|Observed_ADM (target))</t>
   </si>
   <si>
     <t>Truncation Error</t>
@@ -160,10 +160,10 @@
     <t>Target against which the presented ADM was run. For baseline ADMs, established a priori (most aligned). For aligned ADMs, determined by alignment with delegator text alignment scores</t>
   </si>
   <si>
-    <t>Calculated alignment score between the KDMA measurement of the ADM aligned to a particular target and that target using the population-based endpoints</t>
-  </si>
-  <si>
-    <t>Calculated alignment score between the KDMA measurement of a delegator and a target using the population-based endpoints</t>
+    <t>Calculated alignment score between the KDMA measurement of the ADM aligned to a particular target and that target</t>
+  </si>
+  <si>
+    <t>Calculated alignment score between the KDMA measurement of a delegator and a target</t>
   </si>
   <si>
     <t>Compares the KDMA measurement based on participant probe responses in the simulated scenario to an ADM they observed in the delegation survey</t>
@@ -184,7 +184,7 @@
     <t>During the Phase 1 experiment, several ADMs had competence errors. This column shows which participants experienced one of those errors in the delegation survey</t>
   </si>
   <si>
-    <t>Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey using the Phase 1 server and new population-based endpoints</t>
+    <t xml:space="preserve">Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey </t>
   </si>
   <si>
     <t>During the January 2025 Evaluation, some ADMs had action text accidentally truncated. This column shows which participants experienced one of those errors and had their scores in the previous two columns (Alignment score (Delegator|Observed_ADM (target)), DRE Alignment score (Delegator|Observed_ADM (target))) fixed to omit the affected probe(s).</t>
@@ -270,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,12 +287,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -324,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -335,14 +329,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,39 +640,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="46.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="5" width="48.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="5" width="263.43357142857144" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="5" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="5" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="5" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="46.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="48.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="263.43357142857144" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="4" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="4" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="4" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,7 +739,7 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions Calibration_Scores.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions Calibration_Scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Variables</t>
   </si>
@@ -199,7 +199,7 @@
     <t>Delegation preference indicated by the delegator between the aligned ADM and misaligned ADM on comparison trials</t>
   </si>
   <si>
-    <t xml:space="preserve">Participant alignment scorecard on given attribute compared to observed adm.  </t>
+    <t xml:space="preserve">Participant alignment scorecard on given attribute compared to observed ADM.  </t>
   </si>
   <si>
     <t>Levels</t>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>A = aligned \n M = misaligned \nNote: response backfilled to ADMs in the same block to aid in calculation of chosen or not chosen RQ3.2</t>
-  </si>
-  <si>
-    <t>0.9-1.0</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1024,7 @@
         <v>79</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
